--- a/Dades_Municipis.xlsx
+++ b/Dades_Municipis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\grupoci.local\caja\GruposTrabajo_Caja\Carpeta_Trabajo_Pg\Negocio\MEDIOS DE PAGO\Productos sujetos a PG\Apropa\Hackaton UAB\Info_RUTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\UABTheHACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1839735-2C1A-43F5-9BC0-FFA2E62976D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F2E10-F281-4E29-AB05-57D959D77DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="20625" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="32" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2228,7 +2228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2257,57 +2257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Lato"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Lato"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2439,6 +2394,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Lato"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Lato"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5702,7 +5701,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{579B4C1E-079A-4D85-8D8C-5E03D7E3EECA}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{579B4C1E-079A-4D85-8D8C-5E03D7E3EECA}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="T14:U18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -5757,18 +5756,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{720CD5B9-7348-4CC8-9348-973313EB2B6C}" name="Tabla1" displayName="Tabla1" ref="L12:R325" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{720CD5B9-7348-4CC8-9348-973313EB2B6C}" name="Tabla1" displayName="Tabla1" ref="L12:R325" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="L12:R325" xr:uid="{720CD5B9-7348-4CC8-9348-973313EB2B6C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EB761066-AEAB-4755-935B-F9CB6C15EBB1}" name="MUNICIPI" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{EB761066-AEAB-4755-935B-F9CB6C15EBB1}" name="MUNICIPI" dataDxfId="6">
       <calculatedColumnFormula>+TRIM(Q13)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DBCDBFE3-56C5-4A6F-B128-168012DAA89D}" name="Lot" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{23D9E7B5-4739-4589-B82C-CAC65D41F37E}" name="Bloc " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3ECB2B26-4DCD-458C-8DDD-4A484AC6F0A8}" name="Comarca " dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{75EE0DC6-8904-4A81-ABC5-A7B8B31CF1CB}" name="codINE " dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DF25910F-6E6C-4A27-A513-02C0A3893C27}" name="Municipi " dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B530BDF4-7255-4FE1-84D2-ED4CD3DDBB38}" name="Pob. " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DBCDBFE3-56C5-4A6F-B128-168012DAA89D}" name="Lot" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{23D9E7B5-4739-4589-B82C-CAC65D41F37E}" name="Bloc " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3ECB2B26-4DCD-458C-8DDD-4A484AC6F0A8}" name="Comarca " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{75EE0DC6-8904-4A81-ABC5-A7B8B31CF1CB}" name="codINE " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DF25910F-6E6C-4A27-A513-02C0A3893C27}" name="Municipi " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B530BDF4-7255-4FE1-84D2-ED4CD3DDBB38}" name="Pob. " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6043,13 +6042,13 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>277</v>
       </c>
@@ -6064,7 +6063,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>278</v>
       </c>
@@ -6079,7 +6078,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -6094,7 +6093,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L12" s="4" t="s">
         <v>687</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L13" s="1" t="str">
         <f t="shared" ref="L13:L35" si="0">+TRIM(Q13)</f>
         <v>Argençola</v>
@@ -6141,7 +6140,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Bellprat</v>
@@ -6171,7 +6170,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Bruc</v>
@@ -6197,11 +6196,11 @@
       <c r="T15" s="10">
         <v>2</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Cabrera d'Anoia</v>
@@ -6227,11 +6226,11 @@
       <c r="T16" s="10">
         <v>4</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Calonge de Segarra</v>
@@ -6257,11 +6256,11 @@
       <c r="T17" s="10">
         <v>5</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Carme</v>
@@ -6287,11 +6286,11 @@
       <c r="T18" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18">
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Castellfollit de Riubregós</v>
@@ -6315,7 +6314,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Castellolí</v>
@@ -6339,7 +6338,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="21" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Copons</v>
@@ -6363,7 +6362,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Jorba</v>
@@ -6387,7 +6386,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="23" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Llacuna</v>
@@ -6411,7 +6410,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Montmaneu</v>
@@ -6435,7 +6434,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Orpí</v>
@@ -6459,7 +6458,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Prats de Rei</v>
@@ -6483,7 +6482,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pujalt</v>
@@ -6507,7 +6506,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Rubió</v>
@@ -6531,7 +6530,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sant Pere Sallavinera</v>
@@ -6555,7 +6554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sant Martí Sesgueioles</v>
@@ -6579,7 +6578,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Santa Maria de Miralles</v>
@@ -6603,7 +6602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:21" ht="15" x14ac:dyDescent="0.35">
       <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Torre de Claramunt</v>
@@ -6627,7 +6626,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Vallbona d'Anoia</v>
@@ -6651,7 +6650,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Veciana</v>
@@ -6675,7 +6674,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conesa</v>
@@ -6699,7 +6698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L36" s="1" t="str">
         <f t="shared" ref="L36:L99" si="1">+TRIM(Q36)</f>
         <v>Forès</v>
@@ -6723,7 +6722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Llorac</v>
@@ -6747,7 +6746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Passanant i Belltall</v>
@@ -6771,7 +6770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Piles</v>
@@ -6795,7 +6794,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Rocafort de Queralt</v>
@@ -6819,7 +6818,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Savallà del Comtat</v>
@@ -6843,7 +6842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vallfogona de Riucorb</v>
@@ -6867,7 +6866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Cabanyes</v>
@@ -6891,7 +6890,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Castellet i la Gornal</v>
@@ -6915,7 +6914,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="45" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Font-rubí</v>
@@ -6939,7 +6938,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="46" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Mediona</v>
@@ -6963,7 +6962,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="47" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Olesa de Bonesvalls</v>
@@ -6987,7 +6986,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Pacs del Penedès</v>
@@ -7011,7 +7010,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="49" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Pontons</v>
@@ -7035,7 +7034,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="50" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Puigdàlber</v>
@@ -7059,7 +7058,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="51" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sant Cugat Sesgarrigues</v>
@@ -7083,7 +7082,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="52" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sant Llorenç d'Hortons</v>
@@ -7107,7 +7106,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="53" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Santa Fe del Penedès</v>
@@ -7131,7 +7130,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Subirats</v>
@@ -7155,7 +7154,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="55" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Torrelavit</v>
@@ -7179,7 +7178,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="56" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Torrelles de Foix</v>
@@ -7203,7 +7202,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="57" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vilobí del Penedès</v>
@@ -7227,7 +7226,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="58" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Albinyana</v>
@@ -7251,7 +7250,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="59" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Bonastre</v>
@@ -7275,7 +7274,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Masllorenç</v>
@@ -7299,7 +7298,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="61" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Montmell</v>
@@ -7323,7 +7322,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="62" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Santa Oliva</v>
@@ -7347,7 +7346,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="63" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Olivella</v>
@@ -7371,7 +7370,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="64" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Salomó</v>
@@ -7395,7 +7394,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vespella de Gaià</v>
@@ -7419,7 +7418,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Aiguamúrcia</v>
@@ -7443,7 +7442,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Alió</v>
@@ -7467,7 +7466,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Bràfim</v>
@@ -7491,7 +7490,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Cabra del Camp</v>
@@ -7515,7 +7514,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Figuerola del Camp</v>
@@ -7539,7 +7538,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Garidells</v>
@@ -7563,7 +7562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Masó</v>
@@ -7587,7 +7586,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Milà</v>
@@ -7611,7 +7610,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Montferri</v>
@@ -7635,7 +7634,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Mont-ral</v>
@@ -7659,7 +7658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Nulles</v>
@@ -7683,7 +7682,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Puigpelat</v>
@@ -7707,7 +7706,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Querol</v>
@@ -7731,7 +7730,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Riba</v>
@@ -7755,7 +7754,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Rodonyà</v>
@@ -7779,7 +7778,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="81" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Rourell</v>
@@ -7803,7 +7802,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vallmoll</v>
@@ -7827,7 +7826,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="83" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vilabella</v>
@@ -7851,7 +7850,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="84" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Blancafort</v>
@@ -7875,7 +7874,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="85" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Pira</v>
@@ -7899,7 +7898,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Pontils</v>
@@ -7923,7 +7922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Senan</v>
@@ -7947,7 +7946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vallclara</v>
@@ -7971,7 +7970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vilanova de Prades</v>
@@ -7995,7 +7994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Vilaverd</v>
@@ -8019,7 +8018,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="91" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Albiol</v>
@@ -8043,7 +8042,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Aleixar</v>
@@ -8067,7 +8066,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="93" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Alforja</v>
@@ -8091,7 +8090,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="94" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Almoster</v>
@@ -8115,7 +8114,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="95" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Arbolí</v>
@@ -8139,7 +8138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Argentera</v>
@@ -8163,7 +8162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Botarell</v>
@@ -8187,7 +8186,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="98" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Capafonts</v>
@@ -8211,7 +8210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Colldejou</v>
@@ -8235,7 +8234,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L100" s="1" t="str">
         <f t="shared" ref="L100:L115" si="2">+TRIM(Q100)</f>
         <v>Duesaigües</v>
@@ -8259,7 +8258,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L101" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Febró</v>
@@ -8283,7 +8282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L102" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Maspujols</v>
@@ -8307,7 +8306,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="103" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L103" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Pratdip</v>
@@ -8331,7 +8330,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L104" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Riudecanyes</v>
@@ -8355,7 +8354,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="105" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L105" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Riudecols</v>
@@ -8379,7 +8378,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="106" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L106" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Vilanova d'Escornalbou</v>
@@ -8403,7 +8402,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="107" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L107" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Vilaplana</v>
@@ -8427,7 +8426,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="108" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L108" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Catllar</v>
@@ -8451,7 +8450,7 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="109" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L109" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Nou de Gaià</v>
@@ -8475,7 +8474,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="110" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L110" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Perafort</v>
@@ -8499,7 +8498,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="111" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L111" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Pobla de Mafumet</v>
@@ -8523,7 +8522,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="112" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L112" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Renau</v>
@@ -8547,7 +8546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L113" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Riera de Gaià</v>
@@ -8571,7 +8570,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="114" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L114" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Secuita</v>
@@ -8595,7 +8594,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="115" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L115" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Vilallonga del Camp</v>
@@ -8619,7 +8618,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="116" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L116" s="1" t="str">
         <f t="shared" ref="L116:L143" si="3">+TRIM(Q116)</f>
         <v>Far d'Empordà</v>
@@ -8643,7 +8642,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="117" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L117" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Avinyonet de Puigventós</v>
@@ -8667,7 +8666,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="118" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Borrassà</v>
@@ -8691,7 +8690,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="119" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L119" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Cabanes</v>
@@ -8715,7 +8714,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="120" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L120" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Siurana</v>
@@ -8739,7 +8738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L121" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Espolla</v>
@@ -8763,7 +8762,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L122" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Fortià</v>
@@ -8787,7 +8786,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="123" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Garrigàs</v>
@@ -8811,7 +8810,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L124" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Masarac</v>
@@ -8835,7 +8834,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Mollet de Peralada</v>
@@ -8859,7 +8858,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L126" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Ordis</v>
@@ -8883,7 +8882,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L127" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Palau de Santa Eulàlia</v>
@@ -8907,7 +8906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L128" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pau</v>
@@ -8931,7 +8930,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="129" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L129" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pedret i Marzà</v>
@@ -8955,7 +8954,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L130" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pontós</v>
@@ -8979,7 +8978,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L131" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Rabós</v>
@@ -9003,7 +9002,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L132" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Riumors</v>
@@ -9027,7 +9026,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L133" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Sant Miquel de Fluvià</v>
@@ -9051,7 +9050,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="134" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L134" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Santa Llogaia d'Àlguema</v>
@@ -9075,7 +9074,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L135" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Selva de Mar</v>
@@ -9099,7 +9098,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L136" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Torroella de Fluvià</v>
@@ -9123,7 +9122,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="137" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L137" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vilafant</v>
@@ -9147,7 +9146,7 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="138" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L138" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vilaür</v>
@@ -9171,7 +9170,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L139" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vilamacolum</v>
@@ -9195,7 +9194,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="140" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L140" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vilamalla</v>
@@ -9219,7 +9218,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="141" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L141" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vilamaniscle</v>
@@ -9243,7 +9242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L142" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Vila-sacra</v>
@@ -9267,7 +9266,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="143" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L143" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Albanyà</v>
@@ -9291,7 +9290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L144" s="1" t="str">
         <f t="shared" ref="L144:L207" si="4">+TRIM(Q144)</f>
         <v>Vajol</v>
@@ -9315,7 +9314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L145" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Boadella i les Escaules</v>
@@ -9339,7 +9338,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L146" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Cabanelles</v>
@@ -9363,7 +9362,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L147" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Cantallops</v>
@@ -9387,7 +9386,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L148" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Capmany</v>
@@ -9411,7 +9410,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L149" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Cistella</v>
@@ -9435,7 +9434,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L150" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Lladó</v>
@@ -9459,7 +9458,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L151" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Navata</v>
@@ -9483,7 +9482,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="152" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L152" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pont de Molins</v>
@@ -9507,7 +9506,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="153" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L153" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Llorenç de la Muga</v>
@@ -9531,7 +9530,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="154" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L154" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Terrades</v>
@@ -9555,7 +9554,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="155" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L155" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Vilanant</v>
@@ -9579,7 +9578,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="156" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L156" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Biure</v>
@@ -9603,7 +9602,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L157" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Argelaguer</v>
@@ -9627,7 +9626,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="158" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L158" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Beuda</v>
@@ -9651,7 +9650,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L159" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Maià de Montcal</v>
@@ -9675,7 +9674,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="160" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L160" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Mieres</v>
@@ -9699,7 +9698,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L161" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Montagut i Oix</v>
@@ -9723,7 +9722,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="162" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L162" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Riudaura</v>
@@ -9747,7 +9746,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L163" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sales de Llierca</v>
@@ -9771,7 +9770,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L164" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Ferriol</v>
@@ -9795,7 +9794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L165" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Jaume de Llierca</v>
@@ -9819,7 +9818,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="166" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L166" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Aniol de Finestres</v>
@@ -9843,7 +9842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="167" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L167" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Tortellà</v>
@@ -9867,7 +9866,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="168" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L168" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Vall de Bianya</v>
@@ -9891,7 +9890,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="169" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L169" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Mori</v>
@@ -9915,7 +9914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L170" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Ventalló</v>
@@ -9939,7 +9938,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L171" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Viladamat</v>
@@ -9963,7 +9962,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="172" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L172" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Albons</v>
@@ -9987,7 +9986,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="173" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L173" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Bellcaire d'Empordà</v>
@@ -10011,7 +10010,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="174" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L174" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Colomers</v>
@@ -10035,7 +10034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="175" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L175" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Corçà</v>
@@ -10059,7 +10058,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="176" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L176" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Foixà</v>
@@ -10083,7 +10082,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L177" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fontanilles</v>
@@ -10107,7 +10106,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L178" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Garrigoles</v>
@@ -10131,7 +10130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L179" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Gualta</v>
@@ -10155,7 +10154,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="180" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L180" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Jafre</v>
@@ -10179,7 +10178,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="181" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L181" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Palau-sator</v>
@@ -10203,7 +10202,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="182" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L182" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Parlavà</v>
@@ -10227,7 +10226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="183" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L183" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pera</v>
@@ -10251,7 +10250,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="184" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L184" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Regencós</v>
@@ -10275,7 +10274,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L185" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Rupià</v>
@@ -10299,7 +10298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L186" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Serra de Daró</v>
@@ -10323,7 +10322,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="187" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L187" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Tallada d'Empordà</v>
@@ -10347,7 +10346,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="188" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L188" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Torrent</v>
@@ -10371,7 +10370,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L189" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Ultramort</v>
@@ -10395,7 +10394,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L190" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Ullà</v>
@@ -10419,7 +10418,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="191" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L191" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Ullastret</v>
@@ -10443,7 +10442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L192" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Vall-llobrega</v>
@@ -10467,7 +10466,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="193" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L193" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Vilopriu</v>
@@ -10491,7 +10490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L194" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Cruïlles, Monells i Sant Sadurní de l'Heura</v>
@@ -10515,7 +10514,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="195" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L195" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Forallac</v>
@@ -10539,7 +10538,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="196" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L196" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Aiguaviva</v>
@@ -10563,7 +10562,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="197" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L197" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Campllong</v>
@@ -10587,7 +10586,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="198" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L198" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Canet d'Adri</v>
@@ -10611,7 +10610,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="199" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L199" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Cervià de Ter</v>
@@ -10635,7 +10634,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="200" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L200" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Juià</v>
@@ -10659,7 +10658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L201" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Llambilles</v>
@@ -10683,7 +10682,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="202" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L202" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Madremanya</v>
@@ -10707,7 +10706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="203" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L203" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Andreu Salou</v>
@@ -10731,7 +10730,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L204" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Joan de Mollet</v>
@@ -10755,7 +10754,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L205" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Martí de Llémena</v>
@@ -10779,7 +10778,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="206" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L206" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sant Martí Vell</v>
@@ -10803,7 +10802,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="207" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L207" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Viladasens</v>
@@ -10827,7 +10826,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L208" s="1" t="str">
         <f t="shared" ref="L208:L271" si="5">+TRIM(Q208)</f>
         <v>Camós</v>
@@ -10851,7 +10850,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="209" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L209" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Crespià</v>
@@ -10875,7 +10874,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L210" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Esponellà</v>
@@ -10899,7 +10898,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="211" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L211" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Fontcoberta</v>
@@ -10923,7 +10922,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="212" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L212" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Palol de Revardit</v>
@@ -10947,7 +10946,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L213" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Miquel de Campmajor</v>
@@ -10971,7 +10970,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L214" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Vilademuls</v>
@@ -10995,7 +10994,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="215" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L215" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Fogars de la Selva</v>
@@ -11019,7 +11018,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="216" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L216" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Brunyola i Sant Martí Sapresa</v>
@@ -11043,7 +11042,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="217" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L217" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Massanes</v>
@@ -11067,7 +11066,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="218" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L218" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Osor</v>
@@ -11091,7 +11090,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="219" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L219" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Feliu de Buixalleu</v>
@@ -11115,7 +11114,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="220" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L220" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Susqueda</v>
@@ -11139,7 +11138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L221" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Castellfollit del Boix</v>
@@ -11163,7 +11162,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="222" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L222" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Castellgalí</v>
@@ -11187,7 +11186,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="223" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L223" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Mura</v>
@@ -11211,7 +11210,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="224" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L224" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Marganell</v>
@@ -11235,7 +11234,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L225" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Talamanca</v>
@@ -11259,7 +11258,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L226" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Castellví de Rosanes</v>
@@ -11283,7 +11282,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="227" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L227" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Collbató</v>
@@ -11307,7 +11306,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="228" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L228" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Òrrius</v>
@@ -11331,7 +11330,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="229" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L229" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Gallifa</v>
@@ -11355,7 +11354,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="230" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L230" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Rellinars</v>
@@ -11379,7 +11378,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="231" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L231" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Llorenç Savall</v>
@@ -11403,7 +11402,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="232" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L232" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Ullastrell</v>
@@ -11427,7 +11426,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="233" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L233" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Campins</v>
@@ -11451,7 +11450,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="234" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L234" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Cànoves i Samalús</v>
@@ -11475,7 +11474,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="235" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L235" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Fogars de Montclús</v>
@@ -11499,7 +11498,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="236" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L236" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Gualba</v>
@@ -11523,7 +11522,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="237" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L237" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Figaró-Montmany</v>
@@ -11547,7 +11546,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="238" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L238" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Montseny</v>
@@ -11571,7 +11570,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="239" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L239" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Esteve de Palautordera</v>
@@ -11595,7 +11594,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="240" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L240" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Pere de Vilamajor</v>
@@ -11619,7 +11618,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="241" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L241" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Santa Maria de Martorelles</v>
@@ -11643,7 +11642,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="242" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L242" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Tagamanent</v>
@@ -11667,7 +11666,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="243" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L243" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Vallgorguina</v>
@@ -11691,7 +11690,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="244" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L244" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Vilalba Sasserra</v>
@@ -11715,7 +11714,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="245" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L245" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Aguilar de Segarra</v>
@@ -11739,7 +11738,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="246" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L246" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Castellnou de Bages</v>
@@ -11763,7 +11762,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="247" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L247" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Fonollosa</v>
@@ -11787,7 +11786,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="248" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L248" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Gaià</v>
@@ -11811,7 +11810,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="249" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L249" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Rajadell</v>
@@ -11835,7 +11834,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L250" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Feliu Sasserra</v>
@@ -11859,7 +11858,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="251" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L251" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Mateu de Bages</v>
@@ -11883,7 +11882,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="252" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L252" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Olvan</v>
@@ -11907,7 +11906,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="253" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L253" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sagàs</v>
@@ -11931,7 +11930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L254" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Santa Maria de Merlès</v>
@@ -11955,7 +11954,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="255" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L255" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Viver i Serrateix</v>
@@ -11979,7 +11978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L256" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Alpens</v>
@@ -12003,7 +12002,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L257" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Lluçà</v>
@@ -12027,7 +12026,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="258" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L258" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Olost</v>
@@ -12051,7 +12050,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="259" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L259" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Oristà</v>
@@ -12075,7 +12074,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L260" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Perafita</v>
@@ -12099,7 +12098,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="261" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L261" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Martí d'Albars</v>
@@ -12123,7 +12122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="262" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L262" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sobremunt</v>
@@ -12147,7 +12146,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L263" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Calders</v>
@@ -12171,7 +12170,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="264" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L264" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Castellcir</v>
@@ -12195,7 +12194,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="265" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L265" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Collsuspina</v>
@@ -12219,7 +12218,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="266" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L266" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Estany</v>
@@ -12243,7 +12242,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="267" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L267" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Granera</v>
@@ -12267,7 +12266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L268" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Monistrol de Calders</v>
@@ -12291,7 +12290,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="269" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L269" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Sant Quirze Safaja</v>
@@ -12315,7 +12314,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="270" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L270" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Brull</v>
@@ -12339,7 +12338,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L271" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Folgueroles</v>
@@ -12363,7 +12362,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="272" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L272" s="1" t="str">
         <f t="shared" ref="L272:L325" si="6">+TRIM(Q272)</f>
         <v>Gurb</v>
@@ -12387,7 +12386,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="273" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L273" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Malla</v>
@@ -12411,7 +12410,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L274" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Masies de Roda</v>
@@ -12435,7 +12434,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="275" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L275" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Masies de Voltregà</v>
@@ -12459,7 +12458,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="276" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L276" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Muntanyola</v>
@@ -12483,7 +12482,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="277" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L277" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Montesquiu</v>
@@ -12507,7 +12506,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="278" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L278" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Orís</v>
@@ -12531,7 +12530,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="279" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L279" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Agustí de Lluçanès</v>
@@ -12555,7 +12554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L280" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Bartomeu del Grau</v>
@@ -12579,7 +12578,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="281" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L281" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Boi de Lluçanès</v>
@@ -12603,7 +12602,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="282" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L282" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Martí de Centelles</v>
@@ -12627,7 +12626,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="283" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L283" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Sadurní d'Osormort</v>
@@ -12651,7 +12650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="284" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L284" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Santa Cecília de Voltregà</v>
@@ -12675,7 +12674,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="285" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L285" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Santa Eugènia de Berga</v>
@@ -12699,7 +12698,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="286" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L286" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Santa Eulàlia de Riuprimer</v>
@@ -12723,7 +12722,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="287" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L287" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Santa Maria de Besora</v>
@@ -12747,7 +12746,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L288" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Vicenç de Torelló</v>
@@ -12771,7 +12770,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="289" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L289" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sora</v>
@@ -12795,7 +12794,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L290" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tavèrnoles</v>
@@ -12819,7 +12818,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="291" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L291" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tavertet</v>
@@ -12843,7 +12842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L292" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vilanova de Sau</v>
@@ -12867,7 +12866,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="293" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L293" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Rupit i Pruit</v>
@@ -12891,7 +12890,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="294" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L294" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Espinelves</v>
@@ -12915,7 +12914,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="295" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L295" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vidrà</v>
@@ -12939,7 +12938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="296" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L296" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Borredà</v>
@@ -12963,7 +12962,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="297" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L297" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Capolat</v>
@@ -12987,7 +12986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="298" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L298" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Castellar del Riu</v>
@@ -13011,7 +13010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="299" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L299" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Castellar de n'Hug</v>
@@ -13035,7 +13034,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="300" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L300" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Castell de l'Areny</v>
@@ -13059,7 +13058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="301" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L301" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Espunyola</v>
@@ -13083,7 +13082,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="302" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L302" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Fígols</v>
@@ -13107,7 +13106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L303" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Gisclareny</v>
@@ -13131,7 +13130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L304" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Montclar</v>
@@ -13155,7 +13154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="305" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L305" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Nou de Berguedà</v>
@@ -13179,7 +13178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="306" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L306" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Quar</v>
@@ -13203,7 +13202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L307" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Saldes</v>
@@ -13227,7 +13226,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="308" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L308" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Jaume de Frontanyà</v>
@@ -13251,7 +13250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L309" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vallcebre</v>
@@ -13275,7 +13274,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="310" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L310" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vilada</v>
@@ -13299,7 +13298,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="311" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L311" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sant Julià de Cerdanyola</v>
@@ -13323,7 +13322,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="312" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L312" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Gósol</v>
@@ -13347,7 +13346,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="313" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L313" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Campelles</v>
@@ -13371,7 +13370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="314" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L314" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Queralbs</v>
@@ -13395,7 +13394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="315" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L315" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Gombrèn</v>
@@ -13419,7 +13418,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="316" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L316" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Llanars</v>
@@ -13443,7 +13442,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="317" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L317" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Llosses</v>
@@ -13467,7 +13466,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="318" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L318" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Molló</v>
@@ -13491,7 +13490,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="319" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L319" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Ogassa</v>
@@ -13515,7 +13514,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="320" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L320" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Pardines</v>
@@ -13539,7 +13538,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="321" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L321" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Planoles</v>
@@ -13563,7 +13562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L322" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vallfogona de Ripollès</v>
@@ -13587,7 +13586,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="323" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L323" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Setcases</v>
@@ -13611,7 +13610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L324" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Toses</v>
@@ -13635,7 +13634,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="325" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="12:18" ht="15" x14ac:dyDescent="0.35">
       <c r="L325" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Vilallonga de Ter</v>
@@ -13672,22 +13671,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26841DE6-339A-42C3-BE42-AC250425BD57}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>623</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -13871,7 +13870,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -13940,7 +13939,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -13986,7 +13985,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -14009,7 +14008,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -14055,7 +14054,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -14101,7 +14100,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -14193,7 +14192,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14239,7 +14238,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14262,7 +14261,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -14331,7 +14330,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -14377,7 +14376,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -14423,7 +14422,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -14446,7 +14445,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -14492,7 +14491,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -14538,7 +14537,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -14561,7 +14560,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -14699,7 +14698,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -14745,7 +14744,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -14814,7 +14813,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -14837,7 +14836,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -14883,7 +14882,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -14975,7 +14974,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -15136,7 +15135,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -15159,7 +15158,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -15182,7 +15181,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -15297,7 +15296,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -15320,7 +15319,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -15412,7 +15411,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -15573,7 +15572,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -15619,7 +15618,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -15642,7 +15641,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -15711,7 +15710,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -15734,7 +15733,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -15757,7 +15756,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -15780,7 +15779,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -15826,7 +15825,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -16100,18 +16099,18 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>623</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16226,7 +16225,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16249,7 +16248,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -16341,7 +16340,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -16433,7 +16432,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -16525,7 +16524,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -16571,7 +16570,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -16594,7 +16593,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -16640,7 +16639,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -16709,7 +16708,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -16755,7 +16754,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -16778,7 +16777,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -16847,7 +16846,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -16916,7 +16915,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -16962,7 +16961,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -16985,7 +16984,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -17008,7 +17007,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -17054,7 +17053,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -17123,7 +17122,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -17146,7 +17145,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -17192,7 +17191,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -17215,7 +17214,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -17238,7 +17237,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -17261,7 +17260,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -17307,7 +17306,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -17353,7 +17352,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -17445,7 +17444,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -17491,7 +17490,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -17537,7 +17536,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -17560,7 +17559,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -17606,7 +17605,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -17629,7 +17628,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -17675,7 +17674,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -17744,7 +17743,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -17767,7 +17766,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -17859,7 +17858,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -17905,7 +17904,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -17928,7 +17927,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -17951,7 +17950,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -18020,7 +18019,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -18043,7 +18042,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -18089,7 +18088,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -18112,7 +18111,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -18158,7 +18157,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -18181,7 +18180,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -18204,7 +18203,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -18227,7 +18226,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -18273,7 +18272,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -18296,7 +18295,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -18319,7 +18318,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -18342,7 +18341,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -18411,7 +18410,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -18434,7 +18433,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
@@ -18457,7 +18456,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4</v>
       </c>
@@ -18503,7 +18502,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
@@ -18536,22 +18535,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C05AEFC-F8E5-4C7A-A240-D931F8C026EC}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>623</v>
       </c>
@@ -18574,7 +18573,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -18620,7 +18619,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -18643,7 +18642,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18689,7 +18688,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -18896,7 +18895,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -18919,7 +18918,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -18965,7 +18964,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -18988,7 +18987,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -19011,7 +19010,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -19057,7 +19056,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -19126,7 +19125,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -19149,7 +19148,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -19172,7 +19171,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -19218,7 +19217,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -19241,7 +19240,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -19264,7 +19263,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -19287,7 +19286,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -19310,7 +19309,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -19333,7 +19332,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -19379,7 +19378,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -19425,7 +19424,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -19448,7 +19447,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -19471,7 +19470,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -19494,7 +19493,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -19517,7 +19516,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -19586,7 +19585,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -19632,7 +19631,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -19678,7 +19677,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -19701,7 +19700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -19724,7 +19723,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -19747,7 +19746,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -19816,7 +19815,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -19839,7 +19838,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -19885,7 +19884,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -19908,7 +19907,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -19931,7 +19930,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -19954,7 +19953,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -19977,7 +19976,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -20000,7 +19999,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -20023,7 +20022,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5</v>
       </c>
@@ -20046,7 +20045,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
@@ -20069,7 +20068,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5</v>
       </c>
@@ -20092,7 +20091,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -20138,7 +20137,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -20161,7 +20160,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5</v>
       </c>
@@ -20184,7 +20183,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5</v>
       </c>
@@ -20207,7 +20206,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -20276,7 +20275,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -20299,7 +20298,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -20322,7 +20321,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -20345,7 +20344,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -20368,7 +20367,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -20391,7 +20390,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -20414,7 +20413,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -20437,7 +20436,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -20460,7 +20459,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -20483,7 +20482,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -20506,7 +20505,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5</v>
       </c>
@@ -20529,7 +20528,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -20552,7 +20551,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -20575,7 +20574,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -20598,7 +20597,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -20621,7 +20620,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -20644,7 +20643,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -20667,7 +20666,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -20690,7 +20689,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -20713,7 +20712,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -20782,7 +20781,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5</v>
       </c>
@@ -20828,7 +20827,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -20851,7 +20850,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5</v>
       </c>
@@ -20874,7 +20873,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5</v>
       </c>
@@ -20897,7 +20896,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5</v>
       </c>
@@ -20920,7 +20919,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -20943,7 +20942,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
